--- a/qc_rules_biospecimen.xlsx
+++ b/qc_rules_biospecimen.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83D1B8-CB76-2D46-9CEE-24B8EDEA0183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8908CD-FBDA-F14D-9B87-10E6215DAE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="2580" windowWidth="29040" windowHeight="15840" xr2:uid="{D388AE35-2FF2-444B-9B8B-CAE976887209}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{D388AE35-2FF2-444B-9B8B-CAE976887209}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="4" r:id="rId1"/>
-    <sheet name="STREK Tube" sheetId="6" r:id="rId2"/>
-    <sheet name="Custom Rules" sheetId="5" r:id="rId3"/>
+    <sheet name="Home_Collections" sheetId="7" r:id="rId1"/>
+    <sheet name="Main" sheetId="4" r:id="rId2"/>
+    <sheet name="STREK Tube" sheetId="6" r:id="rId3"/>
+    <sheet name="Custom Rules" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Custom Rules'!$A$1:$AC$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$O$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Custom Rules'!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Main!$A$1:$O$238</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -164,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="769">
   <si>
     <t>Label</t>
   </si>
@@ -2253,15 +2254,241 @@
   </si>
   <si>
     <t>Urine Order Based if Date/Time Urine Order Placed populated</t>
+  </si>
+  <si>
+    <t>Kit Assembly Cup ID</t>
+  </si>
+  <si>
+    <t>d_690210658</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>d_194252513</t>
+  </si>
+  <si>
+    <t>d_173836415_d_266600170_d_8583443674_d_379252329</t>
+  </si>
+  <si>
+    <t>If kit type is Mouthwash, then supply kit ID should be equal to return kit ID</t>
+  </si>
+  <si>
+    <t>Kit Assembly Collection iD</t>
+  </si>
+  <si>
+    <t>d_259846815</t>
+  </si>
+  <si>
+    <t>d_786397882</t>
+  </si>
+  <si>
+    <t>If kit type is Mouthwash, then collection cup ID should be equal to collection card ID</t>
+  </si>
+  <si>
+    <t>d_173836415_d_266600170_d_8583443674_d_221592017</t>
+  </si>
+  <si>
+    <t>IF BioKit_KitStatus_v1r0 from the particpants table (221592017) = 4  AND BioKit_KitType_v1r0 (379252329) = 0, THEN MWTube1_BioCol_TubeID_v1r0 (d_143615646_d_825582494) = BioKit_MWCupID_v1r0 (259846815)</t>
+  </si>
+  <si>
+    <t>d_221592017</t>
+  </si>
+  <si>
+    <t>IF BioKit_KitStatus_v1r0 from the kit assembly table (221592017) = 4  AND BioKit_KitType_v1r0 (379252329) = 0, THEN MWTube1_BioCol_TubeID_v1r0 (d_143615646_d_825582494) = BioKit_MWCupID_v1r0 (259846815)</t>
+  </si>
+  <si>
+    <t>Kit status pending</t>
+  </si>
+  <si>
+    <t>d_341636034</t>
+  </si>
+  <si>
+    <t>If kit status is Pending, then date/time kit pending should populate</t>
+  </si>
+  <si>
+    <t>Assign Kit Particiapnts Table</t>
+  </si>
+  <si>
+    <t>d_531858099</t>
+  </si>
+  <si>
+    <t>If kit status is Assigned, then supply kit tracking number should populate. This looks at the kit status variable in the participants table.</t>
+  </si>
+  <si>
+    <t>Assign Kit Kit Assembly Table</t>
+  </si>
+  <si>
+    <t>If kit status is Assigned, then supply kit tracking number should populate. This looks at the kit status variable in the kit assembly table.</t>
+  </si>
+  <si>
+    <t>Kit Shipment Tracking Number Particiapnts Table</t>
+  </si>
+  <si>
+    <t>If kit status is Shipped, then supply kit tracking number  should populate. This checks the kit status in the particiapnts table.</t>
+  </si>
+  <si>
+    <t>Kit Shipment Tracking Number Kit Assembly Table</t>
+  </si>
+  <si>
+    <t>If kit status is Shipped, then supply kit tracking number  should populate. This checks the kit status in the kit assembly table.</t>
+  </si>
+  <si>
+    <t>Kit Shipment Timestamp Particiapnts Table</t>
+  </si>
+  <si>
+    <t>d_661940160</t>
+  </si>
+  <si>
+    <t>If kit status is Shipped, then  date/time kit shipped should populate. This checks kit status in the participants table.</t>
+  </si>
+  <si>
+    <t>Kit Shipment Timestamp Kit Assmembly Table</t>
+  </si>
+  <si>
+    <t>If kit status is Shipped, then  date/time kit shipped should populate. This checks kit status in the kit status table.</t>
+  </si>
+  <si>
+    <t>Kit Receipt Collected</t>
+  </si>
+  <si>
+    <t>If kit status is Received, then the mouthwash sample is collected.</t>
+  </si>
+  <si>
+    <t>Kit Receipt Tube ID</t>
+  </si>
+  <si>
+    <t>If kit status is Received, then the mouthwash sample tube ID should populate.</t>
+  </si>
+  <si>
+    <t>MW Kit Receipt Collection Setting Participants Table</t>
+  </si>
+  <si>
+    <t>If kit status is Received, and the kit type is Mouthwash, then the mouthwash collection setting is Home. This checks the kit status in the participants table</t>
+  </si>
+  <si>
+    <t>MW Kit Receipt Collection Setting Kit Assmebly Table</t>
+  </si>
+  <si>
+    <t>If kit status is Received, and the kit type is Mouthwash, then the mouthwash collection setting is Home. This checks the kit status in the kit assembly table</t>
+  </si>
+  <si>
+    <t>Baseline Mouthwash Kit Receipt</t>
+  </si>
+  <si>
+    <t>If the mouthwash collection setting is Home, and the mouthwash sample is collected, then baseline mouthwash is collected.</t>
+  </si>
+  <si>
+    <t>Kit Receipt Date/Time</t>
+  </si>
+  <si>
+    <t>crossValid2 is populated</t>
+  </si>
+  <si>
+    <t>If the mouthwash collection setting is Home, and the mouthwash sample is collected, then the mouthwash date/time collected should populate.</t>
+  </si>
+  <si>
+    <t>MW Kit Type  Retrun Tracking Number</t>
+  </si>
+  <si>
+    <t>d_972453354</t>
+  </si>
+  <si>
+    <t>If kit type is Mouthwash , then return kit tracking number  should populate.</t>
+  </si>
+  <si>
+    <t>MW Kit Type Supply Kit ID</t>
+  </si>
+  <si>
+    <t>If kit type is Mouthwash , then supply kit ID should populate.</t>
+  </si>
+  <si>
+    <t>MW Kit Type Return Kit ID</t>
+  </si>
+  <si>
+    <t>If kit type is Mouthwash , then return kit ID should populate.</t>
+  </si>
+  <si>
+    <t>MW Kit Type Collection Cup ID</t>
+  </si>
+  <si>
+    <t>If kit type is Mouthwash , then collection cup ID should populate.</t>
+  </si>
+  <si>
+    <t>MW Kit Type Collection Card ID</t>
+  </si>
+  <si>
+    <t>If kit type is Mouthwash , then collection card ID should populate.</t>
+  </si>
+  <si>
+    <t>Kit Receipt Supply Kit Tracking Number Particiapnts Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF kit status is Received, THEN supply kit tracking number should be populated. This checks the kit status of the participants table. </t>
+  </si>
+  <si>
+    <t>Kit Receipt Shipping Date Time Particiapnts Table</t>
+  </si>
+  <si>
+    <t>IF kit status is Received, THEN time/date kit shipped should be populated. This checks the kit status of the participants table</t>
+  </si>
+  <si>
+    <t>Kit Receipt Date Time Received Participants Table</t>
+  </si>
+  <si>
+    <t>d_826941471</t>
+  </si>
+  <si>
+    <t>IF kit status is Received, THEN time/date kit received should be populated. This checks the kit status of the participants table</t>
+  </si>
+  <si>
+    <t>Kit Received Coll Card Missing Flag Particiapnts Table</t>
+  </si>
+  <si>
+    <t>d_137401245</t>
+  </si>
+  <si>
+    <t>IF kit status is Received, THEN  Flag to indicate if the collection card is missing should be populated. This checks the kit status of the participants table</t>
+  </si>
+  <si>
+    <t>Kit Receipt Supply Kit Tracking Number KitAssembly Table</t>
+  </si>
+  <si>
+    <t>IF kit status is Received, THEN supply kit tracking number should be populated. This checks the kit status of the kit assembly table</t>
+  </si>
+  <si>
+    <t>Kit Receipt Shipping Date Time KitAssembly Table</t>
+  </si>
+  <si>
+    <t>IF kit status is Received, THEN time/date kit shipped should be populated. This checks the kit status of the kit assembly table</t>
+  </si>
+  <si>
+    <t>Kit Receipt Date Time Received KitAssembly Table</t>
+  </si>
+  <si>
+    <t>IF kit status is Received, THEN time/date kit recieved should be populated . This checks the kit status of the kit assembly table</t>
+  </si>
+  <si>
+    <t>Kit Received Coll Card Missing Flag KitAssembly Table</t>
+  </si>
+  <si>
+    <t>IF kit status is Received, THEN Flag to indicate if the collection card is missing should be populated. This checks the kit status of the kit assembly table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2467,8 +2694,29 @@
       <name val="Roboto"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2505,6 +2753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2533,74 +2787,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2609,151 +2845,198 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3497,12 +3780,654 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43786C8-79BA-46AA-ADA1-12888F310DF6}">
-  <dimension ref="A1:BM256"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1683A-7419-40F0-92B2-3573E5CED0ED}">
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240:XFD256"/>
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="15" width="80.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="58"/>
+    </row>
+    <row r="2" spans="1:16" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="97" t="s">
+        <v>706</v>
+      </c>
+      <c r="F2" s="95">
+        <v>517216441</v>
+      </c>
+      <c r="O2" s="95" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>706</v>
+      </c>
+      <c r="F3" s="95">
+        <v>241974920</v>
+      </c>
+      <c r="O3" s="95" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="95" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>708</v>
+      </c>
+      <c r="F4" s="95">
+        <v>241974920</v>
+      </c>
+      <c r="O4" s="95" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="95" t="s">
+        <v>718</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>706</v>
+      </c>
+      <c r="F5" s="95">
+        <v>277438316</v>
+      </c>
+      <c r="O5" s="95" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="95" t="s">
+        <v>720</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="95" t="s">
+        <v>708</v>
+      </c>
+      <c r="F6" s="95">
+        <v>277438316</v>
+      </c>
+      <c r="O6" s="95" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="95" t="s">
+        <v>722</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>723</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>706</v>
+      </c>
+      <c r="F7" s="95">
+        <v>277438316</v>
+      </c>
+      <c r="O7" s="95" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="95" t="s">
+        <v>725</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>723</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>708</v>
+      </c>
+      <c r="F8" s="95">
+        <v>277438316</v>
+      </c>
+      <c r="O8" s="96" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="95" t="s">
+        <v>727</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="95">
+        <v>353358909</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F9" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O9" s="95" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="95" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F10" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O10" s="95" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="95" t="s">
+        <v>731</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="95">
+        <v>103209024</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F11" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="H11" s="95">
+        <v>976461859</v>
+      </c>
+      <c r="O11" s="95" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="95" t="s">
+        <v>733</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="95">
+        <v>103209024</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F12" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="H12" s="95">
+        <v>976461859</v>
+      </c>
+      <c r="O12" s="95" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="95" t="s">
+        <v>735</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="95">
+        <v>353358909</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="95">
+        <v>103209024</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O13" s="95" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="95" t="s">
+        <v>737</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="95">
+        <v>103209024</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O14" s="95" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="95" t="s">
+        <v>740</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>741</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="F15" s="95">
+        <v>976461859</v>
+      </c>
+      <c r="O15" s="99" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="95" t="s">
+        <v>743</v>
+      </c>
+      <c r="B16" s="95" t="s">
+        <v>697</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="F16" s="95">
+        <v>976461859</v>
+      </c>
+      <c r="O16" s="99" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="95" t="s">
+        <v>745</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="F17" s="95">
+        <v>976461859</v>
+      </c>
+      <c r="O17" s="99" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="95" t="s">
+        <v>747</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>703</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="F18" s="95">
+        <v>976461859</v>
+      </c>
+      <c r="O18" s="99" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="95" t="s">
+        <v>749</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>704</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="95">
+        <v>976461859</v>
+      </c>
+      <c r="O19" s="99" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="95" t="s">
+        <v>751</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F20" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O20" s="95" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="95" t="s">
+        <v>753</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>723</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F21" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O21" s="95" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="95" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="95" t="s">
+        <v>755</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>756</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F22" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O22" s="97" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="95" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="95" t="s">
+        <v>758</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>759</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O23" s="97" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="95" t="s">
+        <v>761</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>708</v>
+      </c>
+      <c r="F24" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O24" s="95" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="95" t="s">
+        <v>763</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>723</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>708</v>
+      </c>
+      <c r="F25" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O25" s="95" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="95" t="s">
+        <v>765</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>756</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>708</v>
+      </c>
+      <c r="F26" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O26" s="95" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="95" t="s">
+        <v>767</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>759</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>708</v>
+      </c>
+      <c r="F27" s="95">
+        <v>375535639</v>
+      </c>
+      <c r="O27" s="95" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="93"/>
+      <c r="O28" s="94"/>
+    </row>
+    <row r="29" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43786C8-79BA-46AA-ADA1-12888F310DF6}">
+  <dimension ref="A1:BM239"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9531,343 +10456,6 @@
       </c>
       <c r="BM239" s="8" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="240" spans="1:65" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D240" s="88">
-        <v>14</v>
-      </c>
-      <c r="E240" s="61" t="s">
-        <v>550</v>
-      </c>
-      <c r="F240" s="88">
-        <v>353358909</v>
-      </c>
-      <c r="G240" s="64"/>
-      <c r="H240" s="64"/>
-      <c r="I240" s="64"/>
-      <c r="J240" s="64"/>
-      <c r="K240" s="64"/>
-      <c r="L240" s="64"/>
-      <c r="M240" s="64"/>
-      <c r="N240" s="64"/>
-      <c r="O240" s="64"/>
-    </row>
-    <row r="241" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>551</v>
-      </c>
-      <c r="B241" t="s">
-        <v>550</v>
-      </c>
-      <c r="C241" t="s">
-        <v>176</v>
-      </c>
-      <c r="D241" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>552</v>
-      </c>
-      <c r="B242" t="s">
-        <v>553</v>
-      </c>
-      <c r="C242" t="s">
-        <v>176</v>
-      </c>
-      <c r="D242" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>554</v>
-      </c>
-      <c r="B243" t="s">
-        <v>555</v>
-      </c>
-      <c r="C243" t="s">
-        <v>105</v>
-      </c>
-      <c r="D243" t="s">
-        <v>314</v>
-      </c>
-      <c r="E243" t="s">
-        <v>553</v>
-      </c>
-      <c r="F243" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>556</v>
-      </c>
-      <c r="B244" t="s">
-        <v>557</v>
-      </c>
-      <c r="C244" t="s">
-        <v>105</v>
-      </c>
-      <c r="D244" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E244" t="s">
-        <v>553</v>
-      </c>
-      <c r="F244" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>558</v>
-      </c>
-      <c r="B245" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C245" t="s">
-        <v>105</v>
-      </c>
-      <c r="D245" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E245" t="s">
-        <v>553</v>
-      </c>
-      <c r="F245" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>560</v>
-      </c>
-      <c r="B246" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="C246" t="s">
-        <v>105</v>
-      </c>
-      <c r="D246" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E246" t="s">
-        <v>553</v>
-      </c>
-      <c r="F246" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>562</v>
-      </c>
-      <c r="B247" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="C247" t="s">
-        <v>105</v>
-      </c>
-      <c r="D247" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E247" t="s">
-        <v>553</v>
-      </c>
-      <c r="F247" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>564</v>
-      </c>
-      <c r="B248" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="C248" t="s">
-        <v>105</v>
-      </c>
-      <c r="D248" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E248" t="s">
-        <v>553</v>
-      </c>
-      <c r="F248" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>566</v>
-      </c>
-      <c r="B249" s="14" t="s">
-        <v>567</v>
-      </c>
-      <c r="C249" t="s">
-        <v>105</v>
-      </c>
-      <c r="D249" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E249" t="s">
-        <v>553</v>
-      </c>
-      <c r="F249" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>568</v>
-      </c>
-      <c r="B250" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="C250" t="s">
-        <v>105</v>
-      </c>
-      <c r="D250" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E250" t="s">
-        <v>553</v>
-      </c>
-      <c r="F250" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>570</v>
-      </c>
-      <c r="B251" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="C251" t="s">
-        <v>105</v>
-      </c>
-      <c r="D251" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E251" t="s">
-        <v>553</v>
-      </c>
-      <c r="F251" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>572</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="C252" t="s">
-        <v>105</v>
-      </c>
-      <c r="D252" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E252" t="s">
-        <v>553</v>
-      </c>
-      <c r="F252" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>574</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="C253" t="s">
-        <v>105</v>
-      </c>
-      <c r="D253" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E253" t="s">
-        <v>553</v>
-      </c>
-      <c r="F253" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>576</v>
-      </c>
-      <c r="B254" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="C254" t="s">
-        <v>105</v>
-      </c>
-      <c r="D254" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E254" t="s">
-        <v>553</v>
-      </c>
-      <c r="F254" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>578</v>
-      </c>
-      <c r="B255" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C255" t="s">
-        <v>105</v>
-      </c>
-      <c r="D255" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="E255" t="s">
-        <v>553</v>
-      </c>
-      <c r="F255" s="88">
-        <v>353358909</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>580</v>
-      </c>
-      <c r="B256" t="s">
-        <v>581</v>
-      </c>
-      <c r="C256" t="s">
-        <v>105</v>
-      </c>
-      <c r="D256" t="s">
-        <v>314</v>
-      </c>
-      <c r="E256" t="s">
-        <v>563</v>
-      </c>
-      <c r="F256" s="88">
-        <v>353358909</v>
       </c>
     </row>
   </sheetData>
@@ -9946,12 +10534,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F32429E-F19C-4FD5-8911-F68AA06F09FE}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10354,14 +10942,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C23879-7FAE-462E-9D0D-813966798A83}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:BO52"/>
+  <dimension ref="A1:BO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC58" sqref="AC58:AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12825,7 +13413,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
         <v>684</v>
       </c>
@@ -12852,7 +13440,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
         <v>684</v>
       </c>
@@ -12881,11 +13469,111 @@
         <v>686</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="14"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C56" s="89" t="s">
+        <v>696</v>
+      </c>
+      <c r="D56" s="89" t="s">
+        <v>697</v>
+      </c>
+      <c r="E56" s="89" t="s">
+        <v>698</v>
+      </c>
+      <c r="F56" s="89" t="s">
+        <v>699</v>
+      </c>
+      <c r="G56" s="89" t="s">
+        <v>700</v>
+      </c>
+      <c r="H56" s="89">
+        <v>976461859</v>
+      </c>
+      <c r="AC56" s="89" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="C57" s="89" t="s">
+        <v>702</v>
+      </c>
+      <c r="D57" s="89" t="s">
+        <v>703</v>
+      </c>
+      <c r="E57" s="89" t="s">
+        <v>698</v>
+      </c>
+      <c r="F57" s="89" t="s">
+        <v>704</v>
+      </c>
+      <c r="G57" s="89" t="s">
+        <v>700</v>
+      </c>
+      <c r="H57" s="89">
+        <v>976461859</v>
+      </c>
+      <c r="AC57" s="89" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="C58" s="89"/>
+      <c r="D58" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="89" t="s">
+        <v>698</v>
+      </c>
+      <c r="F58" s="89" t="s">
+        <v>703</v>
+      </c>
+      <c r="G58" s="90" t="s">
+        <v>706</v>
+      </c>
+      <c r="H58" s="89">
+        <v>375535639</v>
+      </c>
+      <c r="I58" s="89" t="s">
+        <v>700</v>
+      </c>
+      <c r="J58" s="89">
+        <v>976461859</v>
+      </c>
+      <c r="AC58" s="91" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" ht="34" x14ac:dyDescent="0.2">
+      <c r="C59" s="89"/>
+      <c r="D59" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" s="89" t="s">
+        <v>698</v>
+      </c>
+      <c r="F59" s="89" t="s">
+        <v>703</v>
+      </c>
+      <c r="G59" s="90" t="s">
+        <v>708</v>
+      </c>
+      <c r="H59" s="89">
+        <v>375535639</v>
+      </c>
+      <c r="I59" s="89" t="s">
+        <v>700</v>
+      </c>
+      <c r="J59" s="89">
+        <v>976461859</v>
+      </c>
+      <c r="AC59" s="91" t="s">
+        <v>709</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC44" xr:uid="{21C23879-7FAE-462E-9D0D-813966798A83}">

--- a/qc_rules_biospecimen.xlsx
+++ b/qc_rules_biospecimen.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8908CD-FBDA-F14D-9B87-10E6215DAE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B72E9F7-D559-2E4C-A24C-FE6F7A89C1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{D388AE35-2FF2-444B-9B8B-CAE976887209}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{D388AE35-2FF2-444B-9B8B-CAE976887209}"/>
   </bookViews>
   <sheets>
-    <sheet name="Home_Collections" sheetId="7" r:id="rId1"/>
-    <sheet name="Main" sheetId="4" r:id="rId2"/>
-    <sheet name="STREK Tube" sheetId="6" r:id="rId3"/>
-    <sheet name="Custom Rules" sheetId="5" r:id="rId4"/>
+    <sheet name="Main" sheetId="4" r:id="rId1"/>
+    <sheet name="STREK Tube" sheetId="6" r:id="rId2"/>
+    <sheet name="Custom Rules" sheetId="5" r:id="rId3"/>
+    <sheet name="Home_Collections" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Custom Rules'!$A$1:$AC$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Main!$A$1:$O$238</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Custom Rules'!$A$1:$AC$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$O$238</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="787">
   <si>
     <t>Label</t>
   </si>
@@ -1812,7 +1812,61 @@
     <t xml:space="preserve"> If there's no mouthwash  per DB entry, and collection setting is research, then KP Collection should be null no No</t>
   </si>
   <si>
-    <t>STRECK Tube 1_ID</t>
+    <t>Blood Urine Not Refused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_685002411_d_949501163 </t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received- Site blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any clinical blood or urine sample received = yes if  Clinical Site Blood Sample Collected=yes </t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received- Site urine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any clinical blood or urine sample received = yes if  Clinical Site Urine Sample Collected=yes </t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received-Clinical Site Blood RRL</t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received = yes if Clinical Site Blood RRL=yes</t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received-Clinical Site Urine RRL</t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received = yes if Clinical Site Urine RRL=yes</t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received-Clinical DB Blood RRL</t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received = yes if Clinical DB Blood RRL=yes</t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received- Clinical DB Urine RRL</t>
+  </si>
+  <si>
+    <t>Any clinical blood or urine sample received = yes if Clinical DB Urine RRL=yes</t>
+  </si>
+  <si>
+    <t>BL Blood or Unrine Placed- Blood Placed</t>
+  </si>
+  <si>
+    <t>if Blood Placed=yes then Blood or Unrine Placed=yes</t>
+  </si>
+  <si>
+    <t>BL Blood or Unrine Placed-Urine Placed</t>
+  </si>
+  <si>
+    <t>If Urine Placed=yes then Blood or Unrine Placed=yes</t>
+  </si>
+  <si>
+    <t>STRECK Tube 1: ID</t>
   </si>
   <si>
     <t>d_505347689_d_825582494</t>
@@ -1821,94 +1875,94 @@
     <t>d_505347689_d_593843561</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Tube Collected</t>
-  </si>
-  <si>
-    <t>STRECK Tube 1- Deviation</t>
+    <t>STRECK Tube 1: Tube Collected</t>
+  </si>
+  <si>
+    <t>STRECK Tube 1: Deviation</t>
   </si>
   <si>
     <t>d_505347689_d_678857215</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Hemolyzed</t>
+    <t>STRECK Tube 1: Deviation Hemolyzed</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_242307474</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Mislabeled Resolved</t>
+    <t>STRECK Tube 1: Deviation Mislabeled Resolved</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_283900611</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Outside Contaminated</t>
+    <t>STRECK Tube 1: Deviation Outside Contaminated</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_313097539</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Other</t>
+    <t>STRECK Tube 1: Deviation Other</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_453343022</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Broken</t>
+    <t>STRECK Tube 1: Deviation Broken</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_472864016</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Temp too Low</t>
+    <t>STRECK Tube 1: Deviation Temp too Low</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_550088682</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Mislabeled Discard</t>
+    <t>STRECK Tube 1: Deviation Mislabeled Discard</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_684617815</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Temp too High</t>
+    <t>STRECK Tube 1: Deviation Temp too High</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_690540566</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Low Volume-(tube/container partially filled but still usable)</t>
+    <t>STRECK Tube 1: Deviation Low Volume-(tube/container partially filled but still usable)</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_728366619</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Leaded/Spilled</t>
+    <t>STRECK Tube 1: Deviation Leaded/Spilled</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_757246707</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Tube Size</t>
+    <t>STRECK Tube 1: Deviation Tube Size</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_777486216</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Discard</t>
+    <t>STRECK Tube 1: Deviation Discard</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_810960823</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Deviation Not Found</t>
+    <t>STRECK Tube 1: Deviation Not Found</t>
   </si>
   <si>
     <t>d_505347689_d_248868659_d_982885431</t>
   </si>
   <si>
-    <t>STRECK Tube 1- Discard Flag</t>
+    <t>STRECK Tube 1: Discard Flag</t>
   </si>
   <si>
     <t>d_505347689_d_762124027</t>
@@ -2298,7 +2352,7 @@
     <t>IF BioKit_KitStatus_v1r0 from the kit assembly table (221592017) = 4  AND BioKit_KitType_v1r0 (379252329) = 0, THEN MWTube1_BioCol_TubeID_v1r0 (d_143615646_d_825582494) = BioKit_MWCupID_v1r0 (259846815)</t>
   </si>
   <si>
-    <t>Kit status pending</t>
+    <t>HomeCollection: Kit status pending</t>
   </si>
   <si>
     <t>d_341636034</t>
@@ -2307,7 +2361,7 @@
     <t>If kit status is Pending, then date/time kit pending should populate</t>
   </si>
   <si>
-    <t>Assign Kit Particiapnts Table</t>
+    <t>HomeCollection: Assign Kit Particiapnts Table</t>
   </si>
   <si>
     <t>d_531858099</t>
@@ -2316,25 +2370,25 @@
     <t>If kit status is Assigned, then supply kit tracking number should populate. This looks at the kit status variable in the participants table.</t>
   </si>
   <si>
-    <t>Assign Kit Kit Assembly Table</t>
+    <t>HomeCollection: Assign Kit Kit Assembly Table</t>
   </si>
   <si>
     <t>If kit status is Assigned, then supply kit tracking number should populate. This looks at the kit status variable in the kit assembly table.</t>
   </si>
   <si>
-    <t>Kit Shipment Tracking Number Particiapnts Table</t>
+    <t>HomeCollection: Kit Shipment Tracking Number Particiapnts Table</t>
   </si>
   <si>
     <t>If kit status is Shipped, then supply kit tracking number  should populate. This checks the kit status in the particiapnts table.</t>
   </si>
   <si>
-    <t>Kit Shipment Tracking Number Kit Assembly Table</t>
+    <t>HomeCollection: Kit Shipment Tracking Number Kit Assembly Table</t>
   </si>
   <si>
     <t>If kit status is Shipped, then supply kit tracking number  should populate. This checks the kit status in the kit assembly table.</t>
   </si>
   <si>
-    <t>Kit Shipment Timestamp Particiapnts Table</t>
+    <t>HomeCollection: Kit Shipment Timestamp Particiapnts Table</t>
   </si>
   <si>
     <t>d_661940160</t>
@@ -2343,43 +2397,43 @@
     <t>If kit status is Shipped, then  date/time kit shipped should populate. This checks kit status in the participants table.</t>
   </si>
   <si>
-    <t>Kit Shipment Timestamp Kit Assmembly Table</t>
+    <t>HomeCollection: Kit Shipment Timestamp Kit Assmembly Table</t>
   </si>
   <si>
     <t>If kit status is Shipped, then  date/time kit shipped should populate. This checks kit status in the kit status table.</t>
   </si>
   <si>
-    <t>Kit Receipt Collected</t>
+    <t>HomeCollection: Kit Receipt Collected</t>
   </si>
   <si>
     <t>If kit status is Received, then the mouthwash sample is collected.</t>
   </si>
   <si>
-    <t>Kit Receipt Tube ID</t>
+    <t>HomeCollection: Kit Receipt Tube ID</t>
   </si>
   <si>
     <t>If kit status is Received, then the mouthwash sample tube ID should populate.</t>
   </si>
   <si>
-    <t>MW Kit Receipt Collection Setting Participants Table</t>
+    <t>HomeCollection: MW Kit Receipt Collection Setting Participants Table</t>
   </si>
   <si>
     <t>If kit status is Received, and the kit type is Mouthwash, then the mouthwash collection setting is Home. This checks the kit status in the participants table</t>
   </si>
   <si>
-    <t>MW Kit Receipt Collection Setting Kit Assmebly Table</t>
+    <t>HomeCollection: MW Kit Receipt Collection Setting Kit Assmebly Table</t>
   </si>
   <si>
     <t>If kit status is Received, and the kit type is Mouthwash, then the mouthwash collection setting is Home. This checks the kit status in the kit assembly table</t>
   </si>
   <si>
-    <t>Baseline Mouthwash Kit Receipt</t>
+    <t>HomeCollection: Baseline Mouthwash Kit Receipt</t>
   </si>
   <si>
     <t>If the mouthwash collection setting is Home, and the mouthwash sample is collected, then baseline mouthwash is collected.</t>
   </si>
   <si>
-    <t>Kit Receipt Date/Time</t>
+    <t>HomeCollection: Kit Receipt Date/Time</t>
   </si>
   <si>
     <t>crossValid2 is populated</t>
@@ -2388,7 +2442,7 @@
     <t>If the mouthwash collection setting is Home, and the mouthwash sample is collected, then the mouthwash date/time collected should populate.</t>
   </si>
   <si>
-    <t>MW Kit Type  Retrun Tracking Number</t>
+    <t>HomeCollection: MW Kit Type  Retrun Tracking Number</t>
   </si>
   <si>
     <t>d_972453354</t>
@@ -2397,43 +2451,43 @@
     <t>If kit type is Mouthwash , then return kit tracking number  should populate.</t>
   </si>
   <si>
-    <t>MW Kit Type Supply Kit ID</t>
+    <t>HomeCollection: MW Kit Type Supply Kit ID</t>
   </si>
   <si>
     <t>If kit type is Mouthwash , then supply kit ID should populate.</t>
   </si>
   <si>
-    <t>MW Kit Type Return Kit ID</t>
+    <t>HomeCollection: MW Kit Type Return Kit ID</t>
   </si>
   <si>
     <t>If kit type is Mouthwash , then return kit ID should populate.</t>
   </si>
   <si>
-    <t>MW Kit Type Collection Cup ID</t>
+    <t>HomeCollection: MW Kit Type Collection Cup ID</t>
   </si>
   <si>
     <t>If kit type is Mouthwash , then collection cup ID should populate.</t>
   </si>
   <si>
-    <t>MW Kit Type Collection Card ID</t>
+    <t>HomeCollection: MW Kit Type Collection Card ID</t>
   </si>
   <si>
     <t>If kit type is Mouthwash , then collection card ID should populate.</t>
   </si>
   <si>
-    <t>Kit Receipt Supply Kit Tracking Number Particiapnts Table</t>
+    <t>HomeCollection: Kit Receipt Supply Kit Tracking Number Particiapnts Table</t>
   </si>
   <si>
     <t xml:space="preserve">IF kit status is Received, THEN supply kit tracking number should be populated. This checks the kit status of the participants table. </t>
   </si>
   <si>
-    <t>Kit Receipt Shipping Date Time Particiapnts Table</t>
+    <t>HomeCollection: Kit Receipt Shipping Date Time Particiapnts Table</t>
   </si>
   <si>
     <t>IF kit status is Received, THEN time/date kit shipped should be populated. This checks the kit status of the participants table</t>
   </si>
   <si>
-    <t>Kit Receipt Date Time Received Participants Table</t>
+    <t>HomeCollection: Kit Receipt Date Time Received Participants Table</t>
   </si>
   <si>
     <t>d_826941471</t>
@@ -2442,7 +2496,7 @@
     <t>IF kit status is Received, THEN time/date kit received should be populated. This checks the kit status of the participants table</t>
   </si>
   <si>
-    <t>Kit Received Coll Card Missing Flag Particiapnts Table</t>
+    <t>HomeCollection: Kit Received Coll Card Missing Flag Particiapnts Table</t>
   </si>
   <si>
     <t>d_137401245</t>
@@ -2451,25 +2505,25 @@
     <t>IF kit status is Received, THEN  Flag to indicate if the collection card is missing should be populated. This checks the kit status of the participants table</t>
   </si>
   <si>
-    <t>Kit Receipt Supply Kit Tracking Number KitAssembly Table</t>
+    <t>HomeCollection: Kit Receipt Supply Kit Tracking Number KitAssembly Table</t>
   </si>
   <si>
     <t>IF kit status is Received, THEN supply kit tracking number should be populated. This checks the kit status of the kit assembly table</t>
   </si>
   <si>
-    <t>Kit Receipt Shipping Date Time KitAssembly Table</t>
+    <t>HomeCollection: Kit Receipt Shipping Date Time KitAssembly Table</t>
   </si>
   <si>
     <t>IF kit status is Received, THEN time/date kit shipped should be populated. This checks the kit status of the kit assembly table</t>
   </si>
   <si>
-    <t>Kit Receipt Date Time Received KitAssembly Table</t>
+    <t>HomeCollection: Kit Receipt Date Time Received KitAssembly Table</t>
   </si>
   <si>
     <t>IF kit status is Received, THEN time/date kit recieved should be populated . This checks the kit status of the kit assembly table</t>
   </si>
   <si>
-    <t>Kit Received Coll Card Missing Flag KitAssembly Table</t>
+    <t>HomeCollection: Kit Received Coll Card Missing Flag KitAssembly Table</t>
   </si>
   <si>
     <t>IF kit status is Received, THEN Flag to indicate if the collection card is missing should be populated. This checks the kit status of the kit assembly table</t>
@@ -2479,9 +2533,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2715,8 +2776,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2759,6 +2827,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2787,74 +2861,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2863,180 +2919,206 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3424,9 +3506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3464,7 +3546,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3570,7 +3652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3712,7 +3794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3780,654 +3862,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1683A-7419-40F0-92B2-3573E5CED0ED}">
-  <dimension ref="A1:P35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43786C8-79BA-46AA-ADA1-12888F310DF6}">
+  <dimension ref="A1:BM248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.83203125" customWidth="1"/>
-    <col min="15" max="15" width="80.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="58"/>
-    </row>
-    <row r="2" spans="1:16" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
-        <v>710</v>
-      </c>
-      <c r="B2" s="95" t="s">
-        <v>711</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="97" t="s">
-        <v>706</v>
-      </c>
-      <c r="F2" s="95">
-        <v>517216441</v>
-      </c>
-      <c r="O2" s="95" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="95" t="s">
-        <v>713</v>
-      </c>
-      <c r="B3" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>706</v>
-      </c>
-      <c r="F3" s="95">
-        <v>241974920</v>
-      </c>
-      <c r="O3" s="95" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="95" t="s">
-        <v>716</v>
-      </c>
-      <c r="B4" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>708</v>
-      </c>
-      <c r="F4" s="95">
-        <v>241974920</v>
-      </c>
-      <c r="O4" s="95" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
-        <v>718</v>
-      </c>
-      <c r="B5" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="95" t="s">
-        <v>706</v>
-      </c>
-      <c r="F5" s="95">
-        <v>277438316</v>
-      </c>
-      <c r="O5" s="95" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="95" t="s">
-        <v>720</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="95" t="s">
-        <v>708</v>
-      </c>
-      <c r="F6" s="95">
-        <v>277438316</v>
-      </c>
-      <c r="O6" s="95" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="95" t="s">
-        <v>722</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>723</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="95" t="s">
-        <v>706</v>
-      </c>
-      <c r="F7" s="95">
-        <v>277438316</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
-        <v>725</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>723</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>708</v>
-      </c>
-      <c r="F8" s="95">
-        <v>277438316</v>
-      </c>
-      <c r="O8" s="96" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="95" t="s">
-        <v>727</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="95">
-        <v>353358909</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F9" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O9" s="95" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="s">
-        <v>729</v>
-      </c>
-      <c r="B10" s="95" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F10" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O10" s="95" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="95" t="s">
-        <v>731</v>
-      </c>
-      <c r="B11" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="95">
-        <v>103209024</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F11" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="G11" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="H11" s="95">
-        <v>976461859</v>
-      </c>
-      <c r="O11" s="95" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="95" t="s">
-        <v>733</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="95">
-        <v>103209024</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F12" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="G12" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="H12" s="95">
-        <v>976461859</v>
-      </c>
-      <c r="O12" s="95" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="B13" s="96" t="s">
-        <v>278</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="95">
-        <v>353358909</v>
-      </c>
-      <c r="E13" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="95">
-        <v>103209024</v>
-      </c>
-      <c r="G13" s="98" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="98">
-        <v>353358909</v>
-      </c>
-      <c r="O13" s="95" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="95" t="s">
-        <v>737</v>
-      </c>
-      <c r="B14" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="95" t="s">
-        <v>738</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="95">
-        <v>103209024</v>
-      </c>
-      <c r="G14" s="98" t="s">
-        <v>260</v>
-      </c>
-      <c r="H14" s="98">
-        <v>353358909</v>
-      </c>
-      <c r="O14" s="95" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="95" t="s">
-        <v>740</v>
-      </c>
-      <c r="B15" s="95" t="s">
-        <v>741</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="F15" s="95">
-        <v>976461859</v>
-      </c>
-      <c r="O15" s="99" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
-        <v>743</v>
-      </c>
-      <c r="B16" s="95" t="s">
-        <v>697</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="F16" s="95">
-        <v>976461859</v>
-      </c>
-      <c r="O16" s="99" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
-        <v>745</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>699</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="F17" s="95">
-        <v>976461859</v>
-      </c>
-      <c r="O17" s="99" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
-        <v>747</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>703</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="F18" s="95">
-        <v>976461859</v>
-      </c>
-      <c r="O18" s="99" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
-        <v>749</v>
-      </c>
-      <c r="B19" s="95" t="s">
-        <v>704</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="95" t="s">
-        <v>700</v>
-      </c>
-      <c r="F19" s="95">
-        <v>976461859</v>
-      </c>
-      <c r="O19" s="99" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
-        <v>751</v>
-      </c>
-      <c r="B20" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="C20" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F20" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O20" s="95" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="95" t="s">
-        <v>753</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>723</v>
-      </c>
-      <c r="C21" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F21" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O21" s="95" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="95" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="95" t="s">
-        <v>755</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>756</v>
-      </c>
-      <c r="C22" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F22" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O22" s="97" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="95" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="95" t="s">
-        <v>758</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>759</v>
-      </c>
-      <c r="C23" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="98" t="s">
-        <v>706</v>
-      </c>
-      <c r="F23" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O23" s="97" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="95" t="s">
-        <v>761</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="C24" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="F24" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O24" s="95" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="95" t="s">
-        <v>763</v>
-      </c>
-      <c r="B25" s="95" t="s">
-        <v>723</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="F25" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O25" s="95" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="95" t="s">
-        <v>765</v>
-      </c>
-      <c r="B26" s="95" t="s">
-        <v>756</v>
-      </c>
-      <c r="C26" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="F26" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O26" s="95" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="95" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="95" t="s">
-        <v>767</v>
-      </c>
-      <c r="B27" s="95" t="s">
-        <v>759</v>
-      </c>
-      <c r="C27" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="98" t="s">
-        <v>708</v>
-      </c>
-      <c r="F27" s="95">
-        <v>375535639</v>
-      </c>
-      <c r="O27" s="95" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="93"/>
-      <c r="O28" s="94"/>
-    </row>
-    <row r="29" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="92" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43786C8-79BA-46AA-ADA1-12888F310DF6}">
-  <dimension ref="A1:BM239"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F248" sqref="F248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10458,8 +9898,219 @@
         <v>546</v>
       </c>
     </row>
+    <row r="240" spans="1:65" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="B240" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="C240" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="D240" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="E240" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="F240" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="G240" s="100" t="s">
+        <v>549</v>
+      </c>
+      <c r="H240" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O240" s="101"/>
+    </row>
+    <row r="241" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="99" t="s">
+        <v>550</v>
+      </c>
+      <c r="B241" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C241" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="D241" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E241" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="F241" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O241" s="99" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="99" t="s">
+        <v>552</v>
+      </c>
+      <c r="B242" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C242" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D242" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E242" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="F242" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O242" s="99" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="99" t="s">
+        <v>554</v>
+      </c>
+      <c r="B243" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C243" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D243" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E243" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="F243" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O243" s="99" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="102" t="s">
+        <v>556</v>
+      </c>
+      <c r="B244" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C244" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D244" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E244" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="F244" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O244" s="102" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="102" t="s">
+        <v>558</v>
+      </c>
+      <c r="B245" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C245" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D245" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E245" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O245" s="102" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="102" t="s">
+        <v>560</v>
+      </c>
+      <c r="B246" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C246" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D246" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E246" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="F246" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O246" s="102" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="B247" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C247" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D247" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E247" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="F247" s="103">
+        <v>353358909</v>
+      </c>
+      <c r="O247" s="103" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B248" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C248" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D248" s="102">
+        <v>353358909</v>
+      </c>
+      <c r="E248" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="F248" s="98">
+        <v>353358909</v>
+      </c>
+      <c r="O248" s="103" t="s">
+        <v>565</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O241" xr:uid="{B43786C8-79BA-46AA-ADA1-12888F310DF6}"/>
+  <autoFilter ref="A1:O240" xr:uid="{B43786C8-79BA-46AA-ADA1-12888F310DF6}"/>
   <conditionalFormatting sqref="B90">
     <cfRule type="duplicateValues" dxfId="35" priority="26"/>
   </conditionalFormatting>
@@ -10534,7 +10185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F32429E-F19C-4FD5-8911-F68AA06F09FE}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -10602,10 +10253,10 @@
     </row>
     <row r="2" spans="1:16" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>286</v>
@@ -10614,7 +10265,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="F2" s="88">
         <v>353358909</v>
@@ -10631,10 +10282,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="C3" t="s">
         <v>176</v>
@@ -10645,10 +10296,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="C4" t="s">
         <v>176</v>
@@ -10659,10 +10310,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
         <v>105</v>
@@ -10671,7 +10322,7 @@
         <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F5" s="88">
         <v>353358909</v>
@@ -10679,10 +10330,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="C6" t="s">
         <v>105</v>
@@ -10691,7 +10342,7 @@
         <v>314</v>
       </c>
       <c r="E6" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F6" s="88">
         <v>353358909</v>
@@ -10699,10 +10350,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -10711,7 +10362,7 @@
         <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F7" s="88">
         <v>353358909</v>
@@ -10719,10 +10370,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="C8" t="s">
         <v>105</v>
@@ -10731,7 +10382,7 @@
         <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F8" s="88">
         <v>353358909</v>
@@ -10739,10 +10390,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -10751,7 +10402,7 @@
         <v>314</v>
       </c>
       <c r="E9" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F9" s="88">
         <v>353358909</v>
@@ -10759,10 +10410,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
@@ -10771,7 +10422,7 @@
         <v>314</v>
       </c>
       <c r="E10" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F10" s="88">
         <v>353358909</v>
@@ -10779,10 +10430,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
@@ -10791,7 +10442,7 @@
         <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F11" s="88">
         <v>353358909</v>
@@ -10799,10 +10450,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="C12" t="s">
         <v>105</v>
@@ -10811,7 +10462,7 @@
         <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F12" s="88">
         <v>353358909</v>
@@ -10819,10 +10470,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="C13" t="s">
         <v>105</v>
@@ -10831,7 +10482,7 @@
         <v>314</v>
       </c>
       <c r="E13" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F13" s="88">
         <v>353358909</v>
@@ -10839,10 +10490,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
@@ -10851,7 +10502,7 @@
         <v>314</v>
       </c>
       <c r="E14" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F14" s="88">
         <v>353358909</v>
@@ -10859,10 +10510,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="C15" t="s">
         <v>105</v>
@@ -10871,7 +10522,7 @@
         <v>314</v>
       </c>
       <c r="E15" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F15" s="88">
         <v>353358909</v>
@@ -10879,10 +10530,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="C16" t="s">
         <v>105</v>
@@ -10891,7 +10542,7 @@
         <v>314</v>
       </c>
       <c r="E16" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F16" s="88">
         <v>353358909</v>
@@ -10899,10 +10550,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
         <v>105</v>
@@ -10911,7 +10562,7 @@
         <v>314</v>
       </c>
       <c r="E17" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F17" s="88">
         <v>353358909</v>
@@ -10919,10 +10570,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="B18" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="C18" t="s">
         <v>105</v>
@@ -10931,7 +10582,7 @@
         <v>314</v>
       </c>
       <c r="E18" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="F18" s="88">
         <v>353358909</v>
@@ -10942,7 +10593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C23879-7FAE-462E-9D0D-813966798A83}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BO59"/>
@@ -10987,10 +10638,10 @@
   <sheetData>
     <row r="1" spans="1:67" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>0</v>
@@ -11076,19 +10727,19 @@
     </row>
     <row r="2" spans="1:67" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>168</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>186</v>
@@ -11097,7 +10748,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
@@ -11119,33 +10770,33 @@
       <c r="Z2" s="34"/>
       <c r="AA2" s="34"/>
       <c r="AC2" s="34" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>152</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
@@ -11167,27 +10818,27 @@
       <c r="Z3" s="34"/>
       <c r="AA3" s="34"/>
       <c r="AC3" s="34" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:67" s="50" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>168</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>52</v>
@@ -11215,27 +10866,27 @@
       <c r="Z4" s="49"/>
       <c r="AA4" s="49"/>
       <c r="AC4" s="49" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:67" s="50" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>152</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>52</v>
@@ -11263,24 +10914,24 @@
       <c r="Z5" s="49"/>
       <c r="AA5" s="49"/>
       <c r="AC5" s="49" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:67" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="F6" s="33">
         <v>104430631</v>
@@ -11346,24 +10997,24 @@
         <v>104430631</v>
       </c>
       <c r="AC6" s="35" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="D7" s="36" t="s">
         <v>78</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="F7" s="33">
         <v>104430631</v>
@@ -11429,80 +11080,80 @@
         <v>104430631</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:67" ht="34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="H8" s="69"/>
       <c r="I8" s="70"/>
       <c r="AC8" s="23" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:67" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="68" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="H9" s="69"/>
       <c r="I9" s="38"/>
       <c r="AC9" s="35" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:67" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="F10" s="33">
         <v>104430631</v>
@@ -11571,19 +11222,19 @@
     </row>
     <row r="11" spans="1:67" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F11" s="33">
         <v>353358909</v>
@@ -11601,30 +11252,30 @@
         <v>664882224</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="Q11" s="23" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:67" s="40" customFormat="1" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F12" s="33">
         <v>353358909</v>
@@ -11642,17 +11293,17 @@
         <v>664882224</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="23" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
@@ -11707,19 +11358,19 @@
     </row>
     <row r="13" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F13" s="42">
         <v>353358909</v>
@@ -11737,17 +11388,17 @@
         <v>664882224</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L13" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
@@ -11802,19 +11453,19 @@
     </row>
     <row r="14" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F14" s="42">
         <v>353358909</v>
@@ -11832,17 +11483,17 @@
         <v>664882224</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L14" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
       <c r="Q14" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
@@ -11897,19 +11548,19 @@
     </row>
     <row r="15" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F15" s="42">
         <v>353358909</v>
@@ -11927,17 +11578,17 @@
         <v>664882224</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L15" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
@@ -11992,19 +11643,19 @@
     </row>
     <row r="16" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F16" s="42">
         <v>353358909</v>
@@ -12022,17 +11673,17 @@
         <v>664882224</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
@@ -12087,19 +11738,19 @@
     </row>
     <row r="17" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F17" s="42">
         <v>353358909</v>
@@ -12117,17 +11768,17 @@
         <v>664882224</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L17" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
@@ -12182,19 +11833,19 @@
     </row>
     <row r="18" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F18" s="42">
         <v>353358909</v>
@@ -12212,17 +11863,17 @@
         <v>664882224</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L18" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
@@ -12277,19 +11928,19 @@
     </row>
     <row r="19" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="D19" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F19" s="42">
         <v>353358909</v>
@@ -12307,17 +11958,17 @@
         <v>664882224</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
       <c r="Q19" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
@@ -12372,19 +12023,19 @@
     </row>
     <row r="20" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F20" s="42">
         <v>353358909</v>
@@ -12402,17 +12053,17 @@
         <v>664882224</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
@@ -12467,19 +12118,19 @@
     </row>
     <row r="21" spans="1:67" s="40" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="D21" s="42" t="s">
         <v>78</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="F21" s="42">
         <v>353358909</v>
@@ -12497,17 +12148,17 @@
         <v>664882224</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="35" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
@@ -12562,19 +12213,19 @@
     </row>
     <row r="22" spans="1:67" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="F22" s="42">
         <v>353358909</v>
@@ -12598,30 +12249,30 @@
         <v>353358909</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="1:67" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="44" t="s">
@@ -12637,27 +12288,27 @@
         <v>534621077</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:67" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="44" t="s">
@@ -12673,27 +12324,27 @@
         <v>534621077</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:67" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="44" t="s">
@@ -12703,18 +12354,18 @@
         <v>353358909</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="1:67" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C26" s="43" t="s">
         <v>312</v>
@@ -12723,7 +12374,7 @@
         <v>278</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="F26" s="9">
         <v>104430631</v>
@@ -12735,21 +12386,21 @@
         <v>104430631</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:67" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>68</v>
@@ -12773,21 +12424,21 @@
         <v>664882224</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="Q27" s="23" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:67" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>544</v>
@@ -12819,200 +12470,200 @@
     </row>
     <row r="29" spans="1:67" s="73" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="71" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="D29" s="73" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F29" s="75"/>
       <c r="G29" s="76" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H29" s="76" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="I29" s="77"/>
       <c r="J29" s="77"/>
     </row>
     <row r="30" spans="1:67" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="55" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="23" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
     </row>
     <row r="31" spans="1:67" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="55" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="23" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
     </row>
     <row r="32" spans="1:67" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="55" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="23" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
     </row>
     <row r="33" spans="1:29" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="55" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="23" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
     </row>
     <row r="34" spans="1:29" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="55" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="23" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="11" customFormat="1" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="55" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="23" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>260</v>
@@ -13029,22 +12680,22 @@
     </row>
     <row r="37" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>23</v>
@@ -13061,22 +12712,22 @@
     </row>
     <row r="38" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>29</v>
@@ -13093,22 +12744,22 @@
     </row>
     <row r="39" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>50</v>
@@ -13125,22 +12776,22 @@
     </row>
     <row r="40" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>41</v>
@@ -13157,22 +12808,22 @@
     </row>
     <row r="41" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="E41" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>44</v>
@@ -13189,22 +12840,22 @@
     </row>
     <row r="42" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>57</v>
@@ -13221,19 +12872,19 @@
     </row>
     <row r="43" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="D43" s="56" t="s">
         <v>168</v>
       </c>
       <c r="E43" s="56" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="F43" s="56" t="s">
         <v>186</v>
@@ -13242,7 +12893,7 @@
         <v>52</v>
       </c>
       <c r="H43" s="56" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="I43" s="56"/>
       <c r="J43" s="57"/>
@@ -13253,33 +12904,33 @@
       <c r="O43" s="57"/>
       <c r="P43" s="57"/>
       <c r="Q43" s="57" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="53" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="D44" s="56" t="s">
         <v>152</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="F44" s="56" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="G44" s="56" t="s">
         <v>52</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="I44" s="56"/>
       <c r="J44" s="57"/>
@@ -13290,15 +12941,15 @@
       <c r="O44" s="57"/>
       <c r="P44" s="57"/>
       <c r="Q44" s="57" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="53" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="D45" s="60" t="s">
         <v>179</v>
@@ -13319,18 +12970,18 @@
         <v>52</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="AC45" s="60" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>199</v>
@@ -13351,21 +13002,21 @@
         <v>52</v>
       </c>
       <c r="J46" s="23" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="AC46" s="59" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="E47" s="64" t="s">
         <v>159</v>
@@ -13381,41 +13032,41 @@
         <v>52</v>
       </c>
       <c r="J47" s="23" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="F48" s="14">
         <v>353358909</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="I48" s="23" t="s">
         <v>52</v>
       </c>
       <c r="J48" s="23" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="49" spans="2:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="14" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>209</v>
@@ -13437,21 +13088,21 @@
         <v>52</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="2:29" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="14" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="F50" s="14">
         <v>353358909</v>
@@ -13460,13 +13111,13 @@
         <v>210</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="I50" s="23" t="s">
         <v>52</v>
       </c>
       <c r="J50" s="23" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.2">
@@ -13477,48 +13128,48 @@
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C56" s="89" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="D56" s="89" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="E56" s="89" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F56" s="89" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="G56" s="89" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="H56" s="89">
         <v>976461859</v>
       </c>
       <c r="AC56" s="89" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C57" s="89" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="D57" s="89" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="E57" s="89" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F57" s="89" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="G57" s="89" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="H57" s="89">
         <v>976461859</v>
       </c>
       <c r="AC57" s="89" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="2:29" ht="34" x14ac:dyDescent="0.2">
@@ -13527,25 +13178,25 @@
         <v>285</v>
       </c>
       <c r="E58" s="89" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F58" s="89" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="G58" s="90" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="H58" s="89">
         <v>375535639</v>
       </c>
       <c r="I58" s="89" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="J58" s="89">
         <v>976461859</v>
       </c>
       <c r="AC58" s="91" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="2:29" ht="34" x14ac:dyDescent="0.2">
@@ -13554,25 +13205,25 @@
         <v>285</v>
       </c>
       <c r="E59" s="89" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F59" s="89" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="G59" s="90" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
       <c r="H59" s="89">
         <v>375535639</v>
       </c>
       <c r="I59" s="89" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="J59" s="89">
         <v>976461859</v>
       </c>
       <c r="AC59" s="91" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -13625,4 +13276,2163 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B1683A-7419-40F0-92B2-3573E5CED0ED}">
+  <dimension ref="A1:BM35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.83203125" customWidth="1"/>
+    <col min="15" max="15" width="80.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" s="59" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="58"/>
+    </row>
+    <row r="2" spans="1:65" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="104" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105" t="s">
+        <v>724</v>
+      </c>
+      <c r="F2" s="104">
+        <v>517216441</v>
+      </c>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104" t="s">
+        <v>730</v>
+      </c>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="104"/>
+      <c r="BC2" s="104"/>
+      <c r="BD2" s="104"/>
+      <c r="BE2" s="104"/>
+      <c r="BF2" s="104"/>
+      <c r="BG2" s="104"/>
+      <c r="BH2" s="104"/>
+      <c r="BI2" s="104"/>
+      <c r="BJ2" s="104"/>
+      <c r="BK2" s="104"/>
+      <c r="BL2" s="104"/>
+      <c r="BM2" s="104"/>
+    </row>
+    <row r="3" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="104" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>732</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104" t="s">
+        <v>724</v>
+      </c>
+      <c r="F3" s="104">
+        <v>241974920</v>
+      </c>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104" t="s">
+        <v>733</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="104"/>
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
+      <c r="AK3" s="104"/>
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="104"/>
+      <c r="AP3" s="104"/>
+      <c r="AQ3" s="104"/>
+      <c r="AR3" s="104"/>
+      <c r="AS3" s="104"/>
+      <c r="AT3" s="104"/>
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="104"/>
+      <c r="AX3" s="104"/>
+      <c r="AY3" s="104"/>
+      <c r="AZ3" s="104"/>
+      <c r="BA3" s="104"/>
+      <c r="BB3" s="104"/>
+      <c r="BC3" s="104"/>
+      <c r="BD3" s="104"/>
+      <c r="BE3" s="104"/>
+      <c r="BF3" s="104"/>
+      <c r="BG3" s="104"/>
+      <c r="BH3" s="104"/>
+      <c r="BI3" s="104"/>
+      <c r="BJ3" s="104"/>
+      <c r="BK3" s="104"/>
+      <c r="BL3" s="104"/>
+      <c r="BM3" s="104"/>
+    </row>
+    <row r="4" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="104" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104" t="s">
+        <v>726</v>
+      </c>
+      <c r="F4" s="104">
+        <v>241974920</v>
+      </c>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104" t="s">
+        <v>735</v>
+      </c>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="104"/>
+      <c r="Y4" s="104"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="104"/>
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="104"/>
+      <c r="BH4" s="104"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="104"/>
+    </row>
+    <row r="5" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="104" t="s">
+        <v>736</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>732</v>
+      </c>
+      <c r="C5" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104" t="s">
+        <v>724</v>
+      </c>
+      <c r="F5" s="104">
+        <v>277438316</v>
+      </c>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104" t="s">
+        <v>737</v>
+      </c>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="104"/>
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="104"/>
+      <c r="BA5" s="104"/>
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="104"/>
+      <c r="BG5" s="104"/>
+      <c r="BH5" s="104"/>
+      <c r="BI5" s="104"/>
+      <c r="BJ5" s="104"/>
+      <c r="BK5" s="104"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="104"/>
+    </row>
+    <row r="6" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="104" t="s">
+        <v>738</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>732</v>
+      </c>
+      <c r="C6" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104" t="s">
+        <v>726</v>
+      </c>
+      <c r="F6" s="104">
+        <v>277438316</v>
+      </c>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104" t="s">
+        <v>739</v>
+      </c>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="104"/>
+      <c r="AL6" s="104"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="104"/>
+      <c r="AQ6" s="104"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="104"/>
+      <c r="AV6" s="104"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="104"/>
+      <c r="BA6" s="104"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="104"/>
+      <c r="BF6" s="104"/>
+      <c r="BG6" s="104"/>
+      <c r="BH6" s="104"/>
+      <c r="BI6" s="104"/>
+      <c r="BJ6" s="104"/>
+      <c r="BK6" s="104"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="104"/>
+    </row>
+    <row r="7" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="104" t="s">
+        <v>740</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>741</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104" t="s">
+        <v>724</v>
+      </c>
+      <c r="F7" s="104">
+        <v>277438316</v>
+      </c>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104" t="s">
+        <v>742</v>
+      </c>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="104"/>
+      <c r="W7" s="104"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="104"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="104"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="104"/>
+      <c r="AV7" s="104"/>
+      <c r="AW7" s="104"/>
+      <c r="AX7" s="104"/>
+      <c r="AY7" s="104"/>
+      <c r="AZ7" s="104"/>
+      <c r="BA7" s="104"/>
+      <c r="BB7" s="104"/>
+      <c r="BC7" s="104"/>
+      <c r="BD7" s="104"/>
+      <c r="BE7" s="104"/>
+      <c r="BF7" s="104"/>
+      <c r="BG7" s="104"/>
+      <c r="BH7" s="104"/>
+      <c r="BI7" s="104"/>
+      <c r="BJ7" s="104"/>
+      <c r="BK7" s="104"/>
+      <c r="BL7" s="104"/>
+      <c r="BM7" s="104"/>
+    </row>
+    <row r="8" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="104" t="s">
+        <v>743</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104" t="s">
+        <v>726</v>
+      </c>
+      <c r="F8" s="104">
+        <v>277438316</v>
+      </c>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="94" t="s">
+        <v>744</v>
+      </c>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="104"/>
+      <c r="AB8" s="104"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="104"/>
+      <c r="AL8" s="104"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="104"/>
+      <c r="AQ8" s="104"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="104"/>
+      <c r="BA8" s="104"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="104"/>
+      <c r="BF8" s="104"/>
+      <c r="BG8" s="104"/>
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="104"/>
+      <c r="BL8" s="104"/>
+      <c r="BM8" s="104"/>
+    </row>
+    <row r="9" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="104" t="s">
+        <v>745</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="104">
+        <v>353358909</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F9" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104" t="s">
+        <v>746</v>
+      </c>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="104"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="104"/>
+      <c r="AQ9" s="104"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="104"/>
+      <c r="AV9" s="104"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="104"/>
+      <c r="AY9" s="104"/>
+      <c r="AZ9" s="104"/>
+      <c r="BA9" s="104"/>
+      <c r="BB9" s="104"/>
+      <c r="BC9" s="104"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="104"/>
+      <c r="BF9" s="104"/>
+      <c r="BG9" s="104"/>
+      <c r="BH9" s="104"/>
+      <c r="BI9" s="104"/>
+      <c r="BJ9" s="104"/>
+      <c r="BK9" s="104"/>
+      <c r="BL9" s="104"/>
+      <c r="BM9" s="104"/>
+    </row>
+    <row r="10" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="104" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="104"/>
+      <c r="E10" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F10" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104" t="s">
+        <v>748</v>
+      </c>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="104"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="104"/>
+      <c r="AG10" s="104"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="104"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="104"/>
+      <c r="AV10" s="104"/>
+      <c r="AW10" s="104"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="104"/>
+      <c r="AZ10" s="104"/>
+      <c r="BA10" s="104"/>
+      <c r="BB10" s="104"/>
+      <c r="BC10" s="104"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="104"/>
+      <c r="BF10" s="104"/>
+      <c r="BG10" s="104"/>
+      <c r="BH10" s="104"/>
+      <c r="BI10" s="104"/>
+      <c r="BJ10" s="104"/>
+      <c r="BK10" s="104"/>
+      <c r="BL10" s="104"/>
+      <c r="BM10" s="104"/>
+    </row>
+    <row r="11" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="104" t="s">
+        <v>749</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="104">
+        <v>103209024</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F11" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="H11" s="104">
+        <v>976461859</v>
+      </c>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104" t="s">
+        <v>750</v>
+      </c>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="104"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="104"/>
+      <c r="AF11" s="104"/>
+      <c r="AG11" s="104"/>
+      <c r="AH11" s="104"/>
+      <c r="AI11" s="104"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="104"/>
+      <c r="AL11" s="104"/>
+      <c r="AM11" s="104"/>
+      <c r="AN11" s="104"/>
+      <c r="AO11" s="104"/>
+      <c r="AP11" s="104"/>
+      <c r="AQ11" s="104"/>
+      <c r="AR11" s="104"/>
+      <c r="AS11" s="104"/>
+      <c r="AT11" s="104"/>
+      <c r="AU11" s="104"/>
+      <c r="AV11" s="104"/>
+      <c r="AW11" s="104"/>
+      <c r="AX11" s="104"/>
+      <c r="AY11" s="104"/>
+      <c r="AZ11" s="104"/>
+      <c r="BA11" s="104"/>
+      <c r="BB11" s="104"/>
+      <c r="BC11" s="104"/>
+      <c r="BD11" s="104"/>
+      <c r="BE11" s="104"/>
+      <c r="BF11" s="104"/>
+      <c r="BG11" s="104"/>
+      <c r="BH11" s="104"/>
+      <c r="BI11" s="104"/>
+      <c r="BJ11" s="104"/>
+      <c r="BK11" s="104"/>
+      <c r="BL11" s="104"/>
+      <c r="BM11" s="104"/>
+    </row>
+    <row r="12" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="104" t="s">
+        <v>751</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="104">
+        <v>103209024</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F12" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G12" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="H12" s="104">
+        <v>976461859</v>
+      </c>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104" t="s">
+        <v>752</v>
+      </c>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="104"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="104"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="104"/>
+      <c r="AL12" s="104"/>
+      <c r="AM12" s="104"/>
+      <c r="AN12" s="104"/>
+      <c r="AO12" s="104"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="104"/>
+      <c r="AR12" s="104"/>
+      <c r="AS12" s="104"/>
+      <c r="AT12" s="104"/>
+      <c r="AU12" s="104"/>
+      <c r="AV12" s="104"/>
+      <c r="AW12" s="104"/>
+      <c r="AX12" s="104"/>
+      <c r="AY12" s="104"/>
+      <c r="AZ12" s="104"/>
+      <c r="BA12" s="104"/>
+      <c r="BB12" s="104"/>
+      <c r="BC12" s="104"/>
+      <c r="BD12" s="104"/>
+      <c r="BE12" s="104"/>
+      <c r="BF12" s="104"/>
+      <c r="BG12" s="104"/>
+      <c r="BH12" s="104"/>
+      <c r="BI12" s="104"/>
+      <c r="BJ12" s="104"/>
+      <c r="BK12" s="104"/>
+      <c r="BL12" s="104"/>
+      <c r="BM12" s="104"/>
+    </row>
+    <row r="13" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="104" t="s">
+        <v>753</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="104">
+        <v>353358909</v>
+      </c>
+      <c r="E13" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="104">
+        <v>103209024</v>
+      </c>
+      <c r="G13" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="95">
+        <v>353358909</v>
+      </c>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104" t="s">
+        <v>754</v>
+      </c>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="104"/>
+      <c r="AV13" s="104"/>
+      <c r="AW13" s="104"/>
+      <c r="AX13" s="104"/>
+      <c r="AY13" s="104"/>
+      <c r="AZ13" s="104"/>
+      <c r="BA13" s="104"/>
+      <c r="BB13" s="104"/>
+      <c r="BC13" s="104"/>
+      <c r="BD13" s="104"/>
+      <c r="BE13" s="104"/>
+      <c r="BF13" s="104"/>
+      <c r="BG13" s="104"/>
+      <c r="BH13" s="104"/>
+      <c r="BI13" s="104"/>
+      <c r="BJ13" s="104"/>
+      <c r="BK13" s="104"/>
+      <c r="BL13" s="104"/>
+      <c r="BM13" s="104"/>
+    </row>
+    <row r="14" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="104" t="s">
+        <v>755</v>
+      </c>
+      <c r="B14" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>756</v>
+      </c>
+      <c r="D14" s="104"/>
+      <c r="E14" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="104">
+        <v>103209024</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="95">
+        <v>353358909</v>
+      </c>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104" t="s">
+        <v>757</v>
+      </c>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
+      <c r="AU14" s="104"/>
+      <c r="AV14" s="104"/>
+      <c r="AW14" s="104"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="104"/>
+      <c r="AZ14" s="104"/>
+      <c r="BA14" s="104"/>
+      <c r="BB14" s="104"/>
+      <c r="BC14" s="104"/>
+      <c r="BD14" s="104"/>
+      <c r="BE14" s="104"/>
+      <c r="BF14" s="104"/>
+      <c r="BG14" s="104"/>
+      <c r="BH14" s="104"/>
+      <c r="BI14" s="104"/>
+      <c r="BJ14" s="104"/>
+      <c r="BK14" s="104"/>
+      <c r="BL14" s="104"/>
+      <c r="BM14" s="104"/>
+    </row>
+    <row r="15" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="104" t="s">
+        <v>758</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>759</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="F15" s="104">
+        <v>976461859</v>
+      </c>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="96" t="s">
+        <v>760</v>
+      </c>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="104"/>
+      <c r="AL15" s="104"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="104"/>
+      <c r="AQ15" s="104"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="104"/>
+      <c r="AU15" s="104"/>
+      <c r="AV15" s="104"/>
+      <c r="AW15" s="104"/>
+      <c r="AX15" s="104"/>
+      <c r="AY15" s="104"/>
+      <c r="AZ15" s="104"/>
+      <c r="BA15" s="104"/>
+      <c r="BB15" s="104"/>
+      <c r="BC15" s="104"/>
+      <c r="BD15" s="104"/>
+      <c r="BE15" s="104"/>
+      <c r="BF15" s="104"/>
+      <c r="BG15" s="104"/>
+      <c r="BH15" s="104"/>
+      <c r="BI15" s="104"/>
+      <c r="BJ15" s="104"/>
+      <c r="BK15" s="104"/>
+      <c r="BL15" s="104"/>
+      <c r="BM15" s="104"/>
+    </row>
+    <row r="16" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="104" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16" s="104" t="s">
+        <v>715</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="F16" s="104">
+        <v>976461859</v>
+      </c>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="96" t="s">
+        <v>762</v>
+      </c>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="104"/>
+      <c r="AL16" s="104"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="104"/>
+      <c r="AQ16" s="104"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="104"/>
+      <c r="AV16" s="104"/>
+      <c r="AW16" s="104"/>
+      <c r="AX16" s="104"/>
+      <c r="AY16" s="104"/>
+      <c r="AZ16" s="104"/>
+      <c r="BA16" s="104"/>
+      <c r="BB16" s="104"/>
+      <c r="BC16" s="104"/>
+      <c r="BD16" s="104"/>
+      <c r="BE16" s="104"/>
+      <c r="BF16" s="104"/>
+      <c r="BG16" s="104"/>
+      <c r="BH16" s="104"/>
+      <c r="BI16" s="104"/>
+      <c r="BJ16" s="104"/>
+      <c r="BK16" s="104"/>
+      <c r="BL16" s="104"/>
+      <c r="BM16" s="104"/>
+    </row>
+    <row r="17" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="104" t="s">
+        <v>763</v>
+      </c>
+      <c r="B17" s="104" t="s">
+        <v>717</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="F17" s="104">
+        <v>976461859</v>
+      </c>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="96" t="s">
+        <v>764</v>
+      </c>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="104"/>
+      <c r="AL17" s="104"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="104"/>
+      <c r="AQ17" s="104"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="104"/>
+      <c r="AW17" s="104"/>
+      <c r="AX17" s="104"/>
+      <c r="AY17" s="104"/>
+      <c r="AZ17" s="104"/>
+      <c r="BA17" s="104"/>
+      <c r="BB17" s="104"/>
+      <c r="BC17" s="104"/>
+      <c r="BD17" s="104"/>
+      <c r="BE17" s="104"/>
+      <c r="BF17" s="104"/>
+      <c r="BG17" s="104"/>
+      <c r="BH17" s="104"/>
+      <c r="BI17" s="104"/>
+      <c r="BJ17" s="104"/>
+      <c r="BK17" s="104"/>
+      <c r="BL17" s="104"/>
+      <c r="BM17" s="104"/>
+    </row>
+    <row r="18" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="104" t="s">
+        <v>765</v>
+      </c>
+      <c r="B18" s="104" t="s">
+        <v>721</v>
+      </c>
+      <c r="C18" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="F18" s="104">
+        <v>976461859</v>
+      </c>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="96" t="s">
+        <v>766</v>
+      </c>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="104"/>
+      <c r="AL18" s="104"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="104"/>
+      <c r="AQ18" s="104"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="104"/>
+      <c r="AV18" s="104"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="104"/>
+      <c r="BA18" s="104"/>
+      <c r="BB18" s="104"/>
+      <c r="BC18" s="104"/>
+      <c r="BD18" s="104"/>
+      <c r="BE18" s="104"/>
+      <c r="BF18" s="104"/>
+      <c r="BG18" s="104"/>
+      <c r="BH18" s="104"/>
+      <c r="BI18" s="104"/>
+      <c r="BJ18" s="104"/>
+      <c r="BK18" s="104"/>
+      <c r="BL18" s="104"/>
+      <c r="BM18" s="104"/>
+    </row>
+    <row r="19" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="104" t="s">
+        <v>767</v>
+      </c>
+      <c r="B19" s="104" t="s">
+        <v>722</v>
+      </c>
+      <c r="C19" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104" t="s">
+        <v>718</v>
+      </c>
+      <c r="F19" s="104">
+        <v>976461859</v>
+      </c>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="96" t="s">
+        <v>768</v>
+      </c>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="104"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="104"/>
+      <c r="AL19" s="104"/>
+      <c r="AM19" s="104"/>
+      <c r="AN19" s="104"/>
+      <c r="AO19" s="104"/>
+      <c r="AP19" s="104"/>
+      <c r="AQ19" s="104"/>
+      <c r="AR19" s="104"/>
+      <c r="AS19" s="104"/>
+      <c r="AT19" s="104"/>
+      <c r="AU19" s="104"/>
+      <c r="AV19" s="104"/>
+      <c r="AW19" s="104"/>
+      <c r="AX19" s="104"/>
+      <c r="AY19" s="104"/>
+      <c r="AZ19" s="104"/>
+      <c r="BA19" s="104"/>
+      <c r="BB19" s="104"/>
+      <c r="BC19" s="104"/>
+      <c r="BD19" s="104"/>
+      <c r="BE19" s="104"/>
+      <c r="BF19" s="104"/>
+      <c r="BG19" s="104"/>
+      <c r="BH19" s="104"/>
+      <c r="BI19" s="104"/>
+      <c r="BJ19" s="104"/>
+      <c r="BK19" s="104"/>
+      <c r="BL19" s="104"/>
+      <c r="BM19" s="104"/>
+    </row>
+    <row r="20" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="104" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" s="104" t="s">
+        <v>732</v>
+      </c>
+      <c r="C20" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="104"/>
+      <c r="E20" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F20" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104" t="s">
+        <v>770</v>
+      </c>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="104"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="104"/>
+      <c r="AL20" s="104"/>
+      <c r="AM20" s="104"/>
+      <c r="AN20" s="104"/>
+      <c r="AO20" s="104"/>
+      <c r="AP20" s="104"/>
+      <c r="AQ20" s="104"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="104"/>
+      <c r="AU20" s="104"/>
+      <c r="AV20" s="104"/>
+      <c r="AW20" s="104"/>
+      <c r="AX20" s="104"/>
+      <c r="AY20" s="104"/>
+      <c r="AZ20" s="104"/>
+      <c r="BA20" s="104"/>
+      <c r="BB20" s="104"/>
+      <c r="BC20" s="104"/>
+      <c r="BD20" s="104"/>
+      <c r="BE20" s="104"/>
+      <c r="BF20" s="104"/>
+      <c r="BG20" s="104"/>
+      <c r="BH20" s="104"/>
+      <c r="BI20" s="104"/>
+      <c r="BJ20" s="104"/>
+      <c r="BK20" s="104"/>
+      <c r="BL20" s="104"/>
+      <c r="BM20" s="104"/>
+    </row>
+    <row r="21" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="104" t="s">
+        <v>771</v>
+      </c>
+      <c r="B21" s="104" t="s">
+        <v>741</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="104"/>
+      <c r="E21" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F21" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104" t="s">
+        <v>772</v>
+      </c>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="104"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="104"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="104"/>
+      <c r="AP21" s="104"/>
+      <c r="AQ21" s="104"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="104"/>
+      <c r="AU21" s="104"/>
+      <c r="AV21" s="104"/>
+      <c r="AW21" s="104"/>
+      <c r="AX21" s="104"/>
+      <c r="AY21" s="104"/>
+      <c r="AZ21" s="104"/>
+      <c r="BA21" s="104"/>
+      <c r="BB21" s="104"/>
+      <c r="BC21" s="104"/>
+      <c r="BD21" s="104"/>
+      <c r="BE21" s="104"/>
+      <c r="BF21" s="104"/>
+      <c r="BG21" s="104"/>
+      <c r="BH21" s="104"/>
+      <c r="BI21" s="104"/>
+      <c r="BJ21" s="104"/>
+      <c r="BK21" s="104"/>
+      <c r="BL21" s="104"/>
+      <c r="BM21" s="104"/>
+    </row>
+    <row r="22" spans="1:65" s="93" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="104" t="s">
+        <v>773</v>
+      </c>
+      <c r="B22" s="104" t="s">
+        <v>774</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="104"/>
+      <c r="E22" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F22" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="105" t="s">
+        <v>775</v>
+      </c>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="104"/>
+      <c r="AK22" s="104"/>
+      <c r="AL22" s="104"/>
+      <c r="AM22" s="104"/>
+      <c r="AN22" s="104"/>
+      <c r="AO22" s="104"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="104"/>
+      <c r="AV22" s="104"/>
+      <c r="AW22" s="104"/>
+      <c r="AX22" s="104"/>
+      <c r="AY22" s="104"/>
+      <c r="AZ22" s="104"/>
+      <c r="BA22" s="104"/>
+      <c r="BB22" s="104"/>
+      <c r="BC22" s="104"/>
+      <c r="BD22" s="104"/>
+      <c r="BE22" s="104"/>
+      <c r="BF22" s="104"/>
+      <c r="BG22" s="104"/>
+      <c r="BH22" s="104"/>
+      <c r="BI22" s="104"/>
+      <c r="BJ22" s="104"/>
+      <c r="BK22" s="104"/>
+      <c r="BL22" s="104"/>
+      <c r="BM22" s="104"/>
+    </row>
+    <row r="23" spans="1:65" s="93" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="104" t="s">
+        <v>776</v>
+      </c>
+      <c r="B23" s="104" t="s">
+        <v>777</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="104"/>
+      <c r="E23" s="95" t="s">
+        <v>724</v>
+      </c>
+      <c r="F23" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="105" t="s">
+        <v>778</v>
+      </c>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="104"/>
+      <c r="AJ23" s="104"/>
+      <c r="AK23" s="104"/>
+      <c r="AL23" s="104"/>
+      <c r="AM23" s="104"/>
+      <c r="AN23" s="104"/>
+      <c r="AO23" s="104"/>
+      <c r="AP23" s="104"/>
+      <c r="AQ23" s="104"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="104"/>
+      <c r="AU23" s="104"/>
+      <c r="AV23" s="104"/>
+      <c r="AW23" s="104"/>
+      <c r="AX23" s="104"/>
+      <c r="AY23" s="104"/>
+      <c r="AZ23" s="104"/>
+      <c r="BA23" s="104"/>
+      <c r="BB23" s="104"/>
+      <c r="BC23" s="104"/>
+      <c r="BD23" s="104"/>
+      <c r="BE23" s="104"/>
+      <c r="BF23" s="104"/>
+      <c r="BG23" s="104"/>
+      <c r="BH23" s="104"/>
+      <c r="BI23" s="104"/>
+      <c r="BJ23" s="104"/>
+      <c r="BK23" s="104"/>
+      <c r="BL23" s="104"/>
+      <c r="BM23" s="104"/>
+    </row>
+    <row r="24" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="104" t="s">
+        <v>779</v>
+      </c>
+      <c r="B24" s="104" t="s">
+        <v>732</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="95" t="s">
+        <v>726</v>
+      </c>
+      <c r="F24" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104" t="s">
+        <v>780</v>
+      </c>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="104"/>
+      <c r="AD24" s="104"/>
+      <c r="AE24" s="104"/>
+      <c r="AF24" s="104"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="104"/>
+      <c r="AI24" s="104"/>
+      <c r="AJ24" s="104"/>
+      <c r="AK24" s="104"/>
+      <c r="AL24" s="104"/>
+      <c r="AM24" s="104"/>
+      <c r="AN24" s="104"/>
+      <c r="AO24" s="104"/>
+      <c r="AP24" s="104"/>
+      <c r="AQ24" s="104"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="104"/>
+      <c r="AT24" s="104"/>
+      <c r="AU24" s="104"/>
+      <c r="AV24" s="104"/>
+      <c r="AW24" s="104"/>
+      <c r="AX24" s="104"/>
+      <c r="AY24" s="104"/>
+      <c r="AZ24" s="104"/>
+      <c r="BA24" s="104"/>
+      <c r="BB24" s="104"/>
+      <c r="BC24" s="104"/>
+      <c r="BD24" s="104"/>
+      <c r="BE24" s="104"/>
+      <c r="BF24" s="104"/>
+      <c r="BG24" s="104"/>
+      <c r="BH24" s="104"/>
+      <c r="BI24" s="104"/>
+      <c r="BJ24" s="104"/>
+      <c r="BK24" s="104"/>
+      <c r="BL24" s="104"/>
+      <c r="BM24" s="104"/>
+    </row>
+    <row r="25" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="104" t="s">
+        <v>781</v>
+      </c>
+      <c r="B25" s="104" t="s">
+        <v>741</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="104"/>
+      <c r="E25" s="95" t="s">
+        <v>726</v>
+      </c>
+      <c r="F25" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104" t="s">
+        <v>782</v>
+      </c>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="104"/>
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="104"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="104"/>
+      <c r="AJ25" s="104"/>
+      <c r="AK25" s="104"/>
+      <c r="AL25" s="104"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="104"/>
+      <c r="AO25" s="104"/>
+      <c r="AP25" s="104"/>
+      <c r="AQ25" s="104"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="104"/>
+      <c r="AT25" s="104"/>
+      <c r="AU25" s="104"/>
+      <c r="AV25" s="104"/>
+      <c r="AW25" s="104"/>
+      <c r="AX25" s="104"/>
+      <c r="AY25" s="104"/>
+      <c r="AZ25" s="104"/>
+      <c r="BA25" s="104"/>
+      <c r="BB25" s="104"/>
+      <c r="BC25" s="104"/>
+      <c r="BD25" s="104"/>
+      <c r="BE25" s="104"/>
+      <c r="BF25" s="104"/>
+      <c r="BG25" s="104"/>
+      <c r="BH25" s="104"/>
+      <c r="BI25" s="104"/>
+      <c r="BJ25" s="104"/>
+      <c r="BK25" s="104"/>
+      <c r="BL25" s="104"/>
+      <c r="BM25" s="104"/>
+    </row>
+    <row r="26" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="104" t="s">
+        <v>783</v>
+      </c>
+      <c r="B26" s="104" t="s">
+        <v>774</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="104"/>
+      <c r="E26" s="95" t="s">
+        <v>726</v>
+      </c>
+      <c r="F26" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104" t="s">
+        <v>784</v>
+      </c>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="104"/>
+      <c r="AJ26" s="104"/>
+      <c r="AK26" s="104"/>
+      <c r="AL26" s="104"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="104"/>
+      <c r="AO26" s="104"/>
+      <c r="AP26" s="104"/>
+      <c r="AQ26" s="104"/>
+      <c r="AR26" s="104"/>
+      <c r="AS26" s="104"/>
+      <c r="AT26" s="104"/>
+      <c r="AU26" s="104"/>
+      <c r="AV26" s="104"/>
+      <c r="AW26" s="104"/>
+      <c r="AX26" s="104"/>
+      <c r="AY26" s="104"/>
+      <c r="AZ26" s="104"/>
+      <c r="BA26" s="104"/>
+      <c r="BB26" s="104"/>
+      <c r="BC26" s="104"/>
+      <c r="BD26" s="104"/>
+      <c r="BE26" s="104"/>
+      <c r="BF26" s="104"/>
+      <c r="BG26" s="104"/>
+      <c r="BH26" s="104"/>
+      <c r="BI26" s="104"/>
+      <c r="BJ26" s="104"/>
+      <c r="BK26" s="104"/>
+      <c r="BL26" s="104"/>
+      <c r="BM26" s="104"/>
+    </row>
+    <row r="27" spans="1:65" s="93" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="104" t="s">
+        <v>785</v>
+      </c>
+      <c r="B27" s="104" t="s">
+        <v>777</v>
+      </c>
+      <c r="C27" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="104"/>
+      <c r="E27" s="95" t="s">
+        <v>726</v>
+      </c>
+      <c r="F27" s="104">
+        <v>375535639</v>
+      </c>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104" t="s">
+        <v>786</v>
+      </c>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
+      <c r="AE27" s="104"/>
+      <c r="AF27" s="104"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="104"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="104"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="104"/>
+      <c r="AN27" s="104"/>
+      <c r="AO27" s="104"/>
+      <c r="AP27" s="104"/>
+      <c r="AQ27" s="104"/>
+      <c r="AR27" s="104"/>
+      <c r="AS27" s="104"/>
+      <c r="AT27" s="104"/>
+      <c r="AU27" s="104"/>
+      <c r="AV27" s="104"/>
+      <c r="AW27" s="104"/>
+      <c r="AX27" s="104"/>
+      <c r="AY27" s="104"/>
+      <c r="AZ27" s="104"/>
+      <c r="BA27" s="104"/>
+      <c r="BB27" s="104"/>
+      <c r="BC27" s="104"/>
+      <c r="BD27" s="104"/>
+      <c r="BE27" s="104"/>
+      <c r="BF27" s="104"/>
+      <c r="BG27" s="104"/>
+      <c r="BH27" s="104"/>
+      <c r="BI27" s="104"/>
+      <c r="BJ27" s="104"/>
+      <c r="BK27" s="104"/>
+      <c r="BL27" s="104"/>
+      <c r="BM27" s="104"/>
+    </row>
+    <row r="35" spans="6:15" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="97">
+        <v>353358909</v>
+      </c>
+      <c r="O35" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>